--- a/lab3.07/data.xlsx
+++ b/lab3.07/data.xlsx
@@ -1,43 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilllalayants/Desktop/физика/PhysicsITMO_Electrostatics/lab3.07/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{075D50C6-9260-0E45-AC8C-3C61F58CFCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{5322D1C9-CB26-9443-BC6C-DC346AAAA396}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table_1" sheetId="1" r:id="rId1"/>
+    <sheet name="table_2" sheetId="2" r:id="rId2"/>
+    <sheet name="table_3" sheetId="3" r:id="rId3"/>
+    <sheet name="consts" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+  <si>
+    <t>Xc, ticks</t>
+  </si>
+  <si>
+    <t>Yr, ticks</t>
+  </si>
+  <si>
+    <t>Hc, A/m</t>
+  </si>
+  <si>
+    <t>Br, Tl</t>
+  </si>
+  <si>
+    <t>Kx, mV</t>
+  </si>
+  <si>
+    <t>Ky, mV</t>
+  </si>
+  <si>
+    <t>dHc</t>
+  </si>
+  <si>
+    <t>dBr</t>
+  </si>
+  <si>
+    <t>Xm, ticks</t>
+  </si>
+  <si>
+    <t>Ym, ticks</t>
+  </si>
+  <si>
+    <t>Hm, A/m</t>
+  </si>
+  <si>
+    <t>Bm, Tl</t>
+  </si>
+  <si>
+    <t>Mum</t>
+  </si>
+  <si>
+    <t>dHm</t>
+  </si>
+  <si>
+    <t>dBm</t>
+  </si>
+  <si>
+    <t>dMum</t>
+  </si>
+  <si>
+    <t>U, V</t>
+  </si>
+  <si>
+    <t>S, small sq</t>
+  </si>
+  <si>
+    <t>X, ticks</t>
+  </si>
+  <si>
+    <t>H, A/m</t>
+  </si>
+  <si>
+    <t>Y, ticks</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>B, Tl</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>l, m</t>
+  </si>
+  <si>
+    <t>R1, Om</t>
+  </si>
+  <si>
+    <t>R2, Om</t>
+  </si>
+  <si>
+    <t>C1, F</t>
+  </si>
+  <si>
+    <t>S, sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dl </t>
+  </si>
+  <si>
+    <t>dR1</t>
+  </si>
+  <si>
+    <t>dR2</t>
+  </si>
+  <si>
+    <t>dC1</t>
+  </si>
+  <si>
+    <t>dS</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>f, Hz</t>
+  </si>
+  <si>
+    <t>dalpha</t>
+  </si>
+  <si>
+    <t>dbeta</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -52,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,26 +179,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -94,44 +223,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -158,32 +287,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -210,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -239,153 +332,938 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F14FB8-A159-884C-9BBC-B72109C32A3F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0.8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>25.1131221719457</v>
+      </c>
+      <c r="D2">
+        <v>0.1779155927835051</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>2.531866760527281</v>
+      </c>
+      <c r="H2">
+        <v>0.02874507942770984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>4.2</v>
+      </c>
+      <c r="B2">
+        <v>2.8</v>
+      </c>
+      <c r="C2">
+        <v>131.8438914027149</v>
+      </c>
+      <c r="D2">
+        <v>0.4981636597938142</v>
+      </c>
+      <c r="E2">
+        <v>3006.783555969213</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>13.29230049276822</v>
+      </c>
+      <c r="I2">
+        <v>0.08048622239758753</v>
+      </c>
+      <c r="J2">
+        <v>572.6157094444108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3.37</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>25.1131221719457</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>4510.17533395382</v>
+      </c>
+      <c r="I2">
+        <v>0.1423324742268041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5.07</v>
+      </c>
+      <c r="C3">
+        <v>1.6</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>25.1131221719457</v>
+      </c>
+      <c r="F3">
+        <v>2.4</v>
+      </c>
+      <c r="G3">
+        <v>0.02</v>
+      </c>
+      <c r="H3">
+        <v>5412.210400744584</v>
+      </c>
+      <c r="I3">
+        <v>0.1707989690721649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4.97</v>
+      </c>
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>28.25226244343892</v>
+      </c>
+      <c r="F4">
+        <v>2.6</v>
+      </c>
+      <c r="G4">
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <v>5211.758163679971</v>
+      </c>
+      <c r="I4">
+        <v>0.1850322164948453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7.265</v>
+      </c>
+      <c r="C5">
+        <v>2.2</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>34.53054298642535</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
+        <v>4920.191273404167</v>
+      </c>
+      <c r="I5">
+        <v>0.2134987113402061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.404999999999999</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>37.66968325791856</v>
+      </c>
+      <c r="F6">
+        <v>3.4</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>5111.532045147664</v>
+      </c>
+      <c r="I6">
+        <v>0.2419652061855669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>10.01</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>43.94796380090498</v>
+      </c>
+      <c r="F7">
+        <v>3.8</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>4896.761791149863</v>
+      </c>
+      <c r="I7">
+        <v>0.2704317010309277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5.11</v>
+      </c>
+      <c r="C8">
+        <v>3.2</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>50.22624434389141</v>
+      </c>
+      <c r="F8">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>4510.175333953821</v>
+      </c>
+      <c r="I8">
+        <v>0.2846649484536082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5.57</v>
+      </c>
+      <c r="C9">
+        <v>3.6</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="E9">
+        <v>56.50452488687784</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>4510.175333953821</v>
+      </c>
+      <c r="I9">
+        <v>0.3202480670103092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4.06</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>62.78280542986425</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>4059.157800558439</v>
+      </c>
+      <c r="I10">
+        <v>0.3202480670103092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4.84</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>75.33936651583711</v>
+      </c>
+      <c r="F11">
+        <v>2.2</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>4134.32738945767</v>
+      </c>
+      <c r="I11">
+        <v>0.3914143041237113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>5.67</v>
+      </c>
+      <c r="C12">
+        <v>2.6</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>81.61764705882354</v>
+      </c>
+      <c r="F12">
+        <v>2.4</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>4163.238769803526</v>
+      </c>
+      <c r="I12">
+        <v>0.4269974226804122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>5.73</v>
+      </c>
+      <c r="C13">
+        <v>2.8</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>87.89592760180996</v>
+      </c>
+      <c r="F13">
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>3865.864571960418</v>
+      </c>
+      <c r="I13">
+        <v>0.4269974226804122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>6.17</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>94.17420814479638</v>
+      </c>
+      <c r="F14">
+        <v>2.6</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>3908.818622759979</v>
+      </c>
+      <c r="I14">
+        <v>0.4625805412371133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>6.32</v>
+      </c>
+      <c r="C15">
+        <v>3.2</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>100.4524886877828</v>
+      </c>
+      <c r="F15">
+        <v>2.6</v>
+      </c>
+      <c r="G15">
+        <v>0.05</v>
+      </c>
+      <c r="H15">
+        <v>3664.517458837479</v>
+      </c>
+      <c r="I15">
+        <v>0.4625805412371133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>6.635</v>
+      </c>
+      <c r="C16">
+        <v>3.6</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>113.0090497737557</v>
+      </c>
+      <c r="F16">
+        <v>2.8</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <v>3507.914148630749</v>
+      </c>
+      <c r="I16">
+        <v>0.4981636597938142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>7.16</v>
+      </c>
+      <c r="C17">
+        <v>4.2</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>131.8438914027149</v>
+      </c>
+      <c r="F17">
+        <v>2.8</v>
+      </c>
+      <c r="G17">
+        <v>0.05</v>
+      </c>
+      <c r="H17">
+        <v>3006.783555969213</v>
+      </c>
+      <c r="I17">
+        <v>0.4981636597938142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1665</v>
+      </c>
+      <c r="B2">
+        <v>970</v>
+      </c>
+      <c r="C2">
+        <v>0.078</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>470000</v>
+      </c>
+      <c r="F2">
+        <v>4.699999999999999E-07</v>
+      </c>
+      <c r="G2">
+        <v>6.400000000000001E-05</v>
+      </c>
+      <c r="H2">
+        <v>0.001</v>
+      </c>
+      <c r="I2">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="J2">
+        <v>47000</v>
+      </c>
+      <c r="K2">
+        <v>4.7E-08</v>
+      </c>
+      <c r="L2">
+        <v>5E-06</v>
+      </c>
+      <c r="M2">
+        <v>313.9140271493213</v>
+      </c>
+      <c r="N2">
+        <v>3.558311855670102</v>
+      </c>
+      <c r="O2">
+        <v>0.0008364125985445723</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>31.648334506591</v>
+      </c>
+      <c r="R2">
+        <v>0.5749015885541967</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>